--- a/FDA_0802_Weekly_Report/5_foidev_column_full_list.xlsx
+++ b/FDA_0802_Weekly_Report/5_foidev_column_full_list.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="foitext_BRAND_NAME_full_list" sheetId="5" r:id="rId1"/>
-    <sheet name="foitext_CATALOG_NUMBER_full_lis" sheetId="4" r:id="rId2"/>
-    <sheet name="foitext_DEVICE_REPORT_PRODUCT_C" sheetId="3" r:id="rId3"/>
-    <sheet name="foitext_GENERIC_NAME_full_list" sheetId="2" r:id="rId4"/>
+    <sheet name="foidev_BRAND_NAME_full_list" sheetId="5" r:id="rId1"/>
+    <sheet name="foidev_CATALOG_NUMBER_full_lis" sheetId="4" r:id="rId2"/>
+    <sheet name="foidev_DEVICE_REPORT_PRODUCT_C" sheetId="3" r:id="rId3"/>
+    <sheet name="foidev_GENERIC_NAME_full_list" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21969,7 +21969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -69598,8 +69598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2022"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/FDA_0802_Weekly_Report/5_foidev_column_full_list.xlsx
+++ b/FDA_0802_Weekly_Report/5_foidev_column_full_list.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="foidev_BRAND_NAME_full_list" sheetId="5" r:id="rId1"/>
-    <sheet name="foidev_CATALOG_NUMBER_full_lis" sheetId="4" r:id="rId2"/>
-    <sheet name="foidev_DEVICE_REPORT_PRODUCT_C" sheetId="3" r:id="rId3"/>
-    <sheet name="foidev_GENERIC_NAME_full_list" sheetId="2" r:id="rId4"/>
+    <sheet name="foidev_MANUFACTURER_full_list" sheetId="6" r:id="rId1"/>
+    <sheet name="foidev_BRAND_NAME_full_list" sheetId="5" r:id="rId2"/>
+    <sheet name="foidev_CATALOG_NUMBER_full_lis" sheetId="4" r:id="rId3"/>
+    <sheet name="foidev_DEVICE_REPORT_PRODUCT_C" sheetId="3" r:id="rId4"/>
+    <sheet name="foidev_GENERIC_NAME_full_list" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7733" uniqueCount="7205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8585" uniqueCount="7910">
   <si>
     <t>BREAST IMPLANT</t>
   </si>
@@ -21637,6 +21638,2121 @@
   </si>
   <si>
     <t>Code Explanation</t>
+  </si>
+  <si>
+    <t>ALLERGAN (COSTA RICA)</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP.</t>
+  </si>
+  <si>
+    <t>BIOSIL LTD</t>
+  </si>
+  <si>
+    <t>BIOSIL LTD.</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP</t>
+  </si>
+  <si>
+    <t>UNKNOWN MANUFACTURER</t>
+  </si>
+  <si>
+    <t>MENTOR TEXAS, INC.</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER-SCHULTE.</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>BIOSIL, LTD.</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP. A BRISTOL MYERS SQUIBB CO.</t>
+  </si>
+  <si>
+    <t>BAXTER V. MUELLER</t>
+  </si>
+  <si>
+    <t>ALLERGAN, INC.</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER SCHULTE</t>
+  </si>
+  <si>
+    <t>BIOSIL LTD;</t>
+  </si>
+  <si>
+    <t>MCGHAN CORP.</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORP. (SANTA BARBARA)</t>
+  </si>
+  <si>
+    <t>INAMED CORPORATION</t>
+  </si>
+  <si>
+    <t>BIOSIL, LTD</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP. A BRISTOL-MYERS SQUIBB CO.</t>
+  </si>
+  <si>
+    <t>ALLERGAN (ARKLOW)</t>
+  </si>
+  <si>
+    <t>IDEAL IMPLANT</t>
+  </si>
+  <si>
+    <t>MCGHAN / ALLERGAN</t>
+  </si>
+  <si>
+    <t>SIENTRA, INC</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL, INC.</t>
+  </si>
+  <si>
+    <t>BAXTER SURGICAL GROUP</t>
+  </si>
+  <si>
+    <t>MENTOR TEXAS INC.</t>
+  </si>
+  <si>
+    <t>INAMED CORP</t>
+  </si>
+  <si>
+    <t>BIOPLASTY, INC.</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>WRIGHT MFG CO</t>
+  </si>
+  <si>
+    <t>PIP (USA)</t>
+  </si>
+  <si>
+    <t>ALLERGAN INC.</t>
+  </si>
+  <si>
+    <t>ALLEGIANCE HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>BIOSIL</t>
+  </si>
+  <si>
+    <t>COSTA RICA</t>
+  </si>
+  <si>
+    <t>PMT CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORNING WRIGHT</t>
+  </si>
+  <si>
+    <t>V MUELLER DIV. BAXTER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>BAXTER-SURGICAL GROUP</t>
+  </si>
+  <si>
+    <t>BAXTHEAL</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP./MEDICAL DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>BAXTER HEYER-SCHULTE</t>
+  </si>
+  <si>
+    <t>INAMED SANTA BARBARA</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP. DIRECTOR OF QUALITY CONTROL</t>
+  </si>
+  <si>
+    <t>MCGHAN CORPORATION</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER SCHULTE/V. MUELLER DIV.</t>
+  </si>
+  <si>
+    <t>INAMED/ALLERGAN</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP. MEDICAL DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>WRIGHT MFG CO.</t>
+  </si>
+  <si>
+    <t>MENTOR WW LLC</t>
+  </si>
+  <si>
+    <t>ALLERGAN MEDICAL</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING, CORP.</t>
+  </si>
+  <si>
+    <t>MENTOR WORLDWIDE, LLC</t>
+  </si>
+  <si>
+    <t>MENTOR PRODUCT EVALUATION</t>
+  </si>
+  <si>
+    <t>ALLERGAN, INC</t>
+  </si>
+  <si>
+    <t>CUI CORPORATION</t>
+  </si>
+  <si>
+    <t>ALLERGAN INC</t>
+  </si>
+  <si>
+    <t>BIOPLASTY INC</t>
+  </si>
+  <si>
+    <t>SIENTRA, INC.</t>
+  </si>
+  <si>
+    <t>BRISTOL MEYERS</t>
+  </si>
+  <si>
+    <t>MENTOR/MCGHAN</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP. MEDICAL PRODUCTS</t>
+  </si>
+  <si>
+    <t>MC GHAN MEDICAL CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORNING, CORP.</t>
+  </si>
+  <si>
+    <t>BRISTOL MYERS SQUIBB</t>
+  </si>
+  <si>
+    <t>CUI CORP</t>
+  </si>
+  <si>
+    <t>SILIMED, INC.</t>
+  </si>
+  <si>
+    <t>ALLERGAN INAMED</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE CORP. V. MUELLER DIV.</t>
+  </si>
+  <si>
+    <t>INAMED-SANTA BARBARA</t>
+  </si>
+  <si>
+    <t>INAMED - SANTA BARBARA</t>
+  </si>
+  <si>
+    <t>JOHNSON AND JOHNSON</t>
+  </si>
+  <si>
+    <t>MENTOR WORLDWIDE LLC.</t>
+  </si>
+  <si>
+    <t>MENTOR, CORP.</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE CORP. HEYER SCHULTE</t>
+  </si>
+  <si>
+    <t>MENTOR CORP. OFFICE</t>
+  </si>
+  <si>
+    <t>WRIGHT MANUFACTURING CO.</t>
+  </si>
+  <si>
+    <t>INAMED COSTA RICA</t>
+  </si>
+  <si>
+    <t>BAXTER V.MUELLER</t>
+  </si>
+  <si>
+    <t>INAMED CORPORATION SANTA BARBARA</t>
+  </si>
+  <si>
+    <t>V. MUELLER, BAXTER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORP.(SANTA BARBARA)</t>
+  </si>
+  <si>
+    <t>SURGITEK, INC.</t>
+  </si>
+  <si>
+    <t>AMERICN HEYER-SCHULTE</t>
+  </si>
+  <si>
+    <t>PIP USA</t>
+  </si>
+  <si>
+    <t>V. MUELLER DIV., BAXTER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>ARKLOW</t>
+  </si>
+  <si>
+    <t>MENTOR INC</t>
+  </si>
+  <si>
+    <t>MENTOR H/S, INC</t>
+  </si>
+  <si>
+    <t>DOWN CORNING CORP.</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP A BRISTOL MYERS SQUIBB CO.</t>
+  </si>
+  <si>
+    <t>V. MUELLER DIV. BAXTHER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>N/D</t>
+  </si>
+  <si>
+    <t>ALLERGAN, INC. (FORMERLY MCGHAN)</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL GROUP</t>
+  </si>
+  <si>
+    <t>ALLERGAN/MENTOR</t>
+  </si>
+  <si>
+    <t>ALLERGAN/MCGHAN</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER-SHULTE</t>
+  </si>
+  <si>
+    <t>WRIGHT MEDICAL TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>MENTOS H/S</t>
+  </si>
+  <si>
+    <t>MENTOR TEXAS INC</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING A BRISTOL-MYERS SQUIBB CO.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP MEDICAL DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>DOW CORNING-WRIGHT MEDICAL</t>
+  </si>
+  <si>
+    <t>DOW CORNING CO.</t>
+  </si>
+  <si>
+    <t>ALLERGAN (AUSTIN)</t>
+  </si>
+  <si>
+    <t>UNK: BELIEVED TO BE DOW CORNING</t>
+  </si>
+  <si>
+    <t>BAXTER V. MUELLER CORP.</t>
+  </si>
+  <si>
+    <t>MENTOR TEXAS, INC</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL, CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORNING - WRIGHT MEDICAL</t>
+  </si>
+  <si>
+    <t>SURGITECK</t>
+  </si>
+  <si>
+    <t>INAMED PRODUCT SUPPORT</t>
+  </si>
+  <si>
+    <t>BRISTOL-MYERS SQUIBB</t>
+  </si>
+  <si>
+    <t>BIOPLASTY INC./ ALLERGAN</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORP./3M</t>
+  </si>
+  <si>
+    <t>INAMED / ALLERGAN</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING COPR.</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL INAMED</t>
+  </si>
+  <si>
+    <t>DOW CORNING/ MENTOR</t>
+  </si>
+  <si>
+    <t>DUPONT</t>
+  </si>
+  <si>
+    <t>NATURAL SURGICAL SPECIALTIES, INC.</t>
+  </si>
+  <si>
+    <t>MENTOR HS, INC.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP DIRECTOR OF QUALITY CONTROL</t>
+  </si>
+  <si>
+    <t>DOWCORNING CORP.</t>
+  </si>
+  <si>
+    <t>CUI/COX-UPHOFF</t>
+  </si>
+  <si>
+    <t>INAMED ARKLOW</t>
+  </si>
+  <si>
+    <t>INAMD</t>
+  </si>
+  <si>
+    <t>MENTOR CO</t>
+  </si>
+  <si>
+    <t>ALLERGAN/NATRELLE</t>
+  </si>
+  <si>
+    <t>UNKNOWN MANUFACTURING FACILITY</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE COPR.</t>
+  </si>
+  <si>
+    <t>MCGHAN/INAMED CORP.</t>
+  </si>
+  <si>
+    <t>INAMED AESTHETICS / ALLERGAN</t>
+  </si>
+  <si>
+    <t>DOW CORNING CHEMICAL</t>
+  </si>
+  <si>
+    <t>SILLMED</t>
+  </si>
+  <si>
+    <t>SURGITECK, MEDICAL ENGINEERING CORP</t>
+  </si>
+  <si>
+    <t>IDEAL IMPLANT INCORPORATED</t>
+  </si>
+  <si>
+    <t>DOW CORNING / MENTOR</t>
+  </si>
+  <si>
+    <t>MENTOR TEXAS</t>
+  </si>
+  <si>
+    <t>ALLERGAN MEDICAL INC.</t>
+  </si>
+  <si>
+    <t>JOHNSON &amp; JOHNSON / ALLERGAN</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL, INAMED AESTHETICS</t>
+  </si>
+  <si>
+    <t>LIPOMATRIX, INC.</t>
+  </si>
+  <si>
+    <t>MENTOR CORPORTATION</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP./MDR REPORTING &amp; COMPLAINT INVESTIGATION</t>
+  </si>
+  <si>
+    <t>PIP / USA</t>
+  </si>
+  <si>
+    <t>NATRELLE CANADA/ALLERGAN</t>
+  </si>
+  <si>
+    <t>CVI CORP.</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CO.</t>
+  </si>
+  <si>
+    <t>WRIGHT MFG CO MIDLAND TERMINAL</t>
+  </si>
+  <si>
+    <t>MCGHAN -NOW INAMED-</t>
+  </si>
+  <si>
+    <t>3M COMPANY</t>
+  </si>
+  <si>
+    <t>ALLERGAN MEDICAL/MCGHAN/INAMED</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP. MDR REPORTING &amp; COMPLAINT INVESTIGATION</t>
+  </si>
+  <si>
+    <t>DOW CORINING CORP.</t>
+  </si>
+  <si>
+    <t>MENTOR/ALLERGAN</t>
+  </si>
+  <si>
+    <t>INAMED CORPORATION - SANTA BARBARA</t>
+  </si>
+  <si>
+    <t>ALLEGIANCE HEALTHCARE CORP</t>
+  </si>
+  <si>
+    <t>INAMED/PRODUCT SUPPORT</t>
+  </si>
+  <si>
+    <t>MENTOR, CORP</t>
+  </si>
+  <si>
+    <t>MENTOR H/S, INCORPORATED</t>
+  </si>
+  <si>
+    <t>SURGITEK INC</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP/MEDICAL DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>HEYER SCHUTE</t>
+  </si>
+  <si>
+    <t>INAMED AESTHETICS ALLERGAN</t>
+  </si>
+  <si>
+    <t>BRISTOL MEYER</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER SCHULTE/V MUELLER DIV.</t>
+  </si>
+  <si>
+    <t>DOW CORNING/DEVICE COMPLAINT INVESTIGATION</t>
+  </si>
+  <si>
+    <t>INAMED - COSTA RICA</t>
+  </si>
+  <si>
+    <t>HEYER - SCHULTE CORPORATION / MENTOR</t>
+  </si>
+  <si>
+    <t>NATURAL SURGICAL SPECIALTIES</t>
+  </si>
+  <si>
+    <t>MEDICAN ENGINEERING CORP.</t>
+  </si>
+  <si>
+    <t>MCGHAN/INAMED</t>
+  </si>
+  <si>
+    <t>SILTEX-BECKER MENTOR</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP MEDICAL PRODUCTS</t>
+  </si>
+  <si>
+    <t>NATURAL SPECIALTY SURGICAL INC</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CO. A BRISTOL MYERS SQUIBB CO.</t>
+  </si>
+  <si>
+    <t>MENTOR CORP WORLDWIDE</t>
+  </si>
+  <si>
+    <t>MENTOR H S</t>
+  </si>
+  <si>
+    <t>HEYER SCHULTE CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP MEDICAL</t>
+  </si>
+  <si>
+    <t>SEBBIN</t>
+  </si>
+  <si>
+    <t>MCGHAN INAMED / MENTOR</t>
+  </si>
+  <si>
+    <t>MENTOR CORPORATION, PRODUCT EVALUATION DEPT</t>
+  </si>
+  <si>
+    <t>MENTOR (TEXAS OPERATIONS)</t>
+  </si>
+  <si>
+    <t>SURGITEK CORP</t>
+  </si>
+  <si>
+    <t>INAMED CORPORATION (SANTA BARBARA)</t>
+  </si>
+  <si>
+    <t>DOW CORNING, INC.</t>
+  </si>
+  <si>
+    <t>NAGOR LTD</t>
+  </si>
+  <si>
+    <t>SURGITEK NO LONGER IN BUSINESS</t>
+  </si>
+  <si>
+    <t>SURGITEK, A SUBSIDIARY OF BRISTOL MYERS SQUIBB</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>BRISTOL-MYERS SQUIBB COMPANY</t>
+  </si>
+  <si>
+    <t>MENTOR H/S CORP.</t>
+  </si>
+  <si>
+    <t>PIP - USA</t>
+  </si>
+  <si>
+    <t>MEME SURGITEK MEDICAL ENGINEERING CORP</t>
+  </si>
+  <si>
+    <t>J&amp;J / MENTOR</t>
+  </si>
+  <si>
+    <t>MENTORCORP</t>
+  </si>
+  <si>
+    <t>ALLERGAN (MCGHAN)</t>
+  </si>
+  <si>
+    <t>LEIDEN MENTOR MEDICAL SYSTEM B.V.</t>
+  </si>
+  <si>
+    <t>MC GHAN MEDICAL CORP</t>
+  </si>
+  <si>
+    <t>INAMED CORPORATION, NOW ALLERGAN</t>
+  </si>
+  <si>
+    <t>MCGAHN MEDICAL CORP</t>
+  </si>
+  <si>
+    <t>BIOSIL LIMITED</t>
+  </si>
+  <si>
+    <t>SURGITEK MEDICAL ENGINEERING CORP</t>
+  </si>
+  <si>
+    <t>MCGAHN/ALLERGAN</t>
+  </si>
+  <si>
+    <t>MCGHAN/ ALLERGAN</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP./A BRISTOL-MYERS SQUIBB CO</t>
+  </si>
+  <si>
+    <t>DOW CORNING MEDICAL DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORP (SANTA BARBARA)</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP./ A BRISTOL MYERS SQUIBB CO</t>
+  </si>
+  <si>
+    <t>V. MUELLER DIV. BAXTER HEALTHCARE CORPORATION</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORPORATION, CLINICAL RESEARCH DEPT</t>
+  </si>
+  <si>
+    <t>BIOSIL LTD,</t>
+  </si>
+  <si>
+    <t>INAMED AESTHETICES</t>
+  </si>
+  <si>
+    <t>SILIMED/ SIENTRA, INC.</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINERING CORP.</t>
+  </si>
+  <si>
+    <t>MENTOR PRODUCT RETURNS</t>
+  </si>
+  <si>
+    <t>MEGHAN MEDICAL CORP</t>
+  </si>
+  <si>
+    <t>MENTOR MEDICAL SYSTEMS</t>
+  </si>
+  <si>
+    <t>AMEICAN HEYER-SCHULTE</t>
+  </si>
+  <si>
+    <t>MENTORCORP.COM</t>
+  </si>
+  <si>
+    <t>BAXTER V. MUELLER, BAXTER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE CORP V. MUELLER DIV.</t>
+  </si>
+  <si>
+    <t>MENTOR WORLDWIDE, LLC.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP., MEDICAL DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>BRISTOL MEYERS SQUIBB</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL - INAMED</t>
+  </si>
+  <si>
+    <t>V. MUELLER DIV. BAXTER HEALTHCARE</t>
+  </si>
+  <si>
+    <t>MENTOR WORLWIDE, LLC.</t>
+  </si>
+  <si>
+    <t>SURGITEK/MEDICAL ENGINEERING CORP.</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERNG CORP.</t>
+  </si>
+  <si>
+    <t>COX UPHOFF DOW CORNING GEL</t>
+  </si>
+  <si>
+    <t>ALLERGAN MEXICO-DISTRIBUTOR INTL SALES GROUP</t>
+  </si>
+  <si>
+    <t>PIP. AMERICA</t>
+  </si>
+  <si>
+    <t>ALLERGEN, INC</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORPORATION</t>
+  </si>
+  <si>
+    <t>BRISTOL MYERS/ DOW - SURGITEK</t>
+  </si>
+  <si>
+    <t>WRIGHT MANUFACTURING CO</t>
+  </si>
+  <si>
+    <t>DOW CORNING INC.</t>
+  </si>
+  <si>
+    <t>INAMED (SANTA BARBARA)</t>
+  </si>
+  <si>
+    <t>POLY IMPLANT PROSTHESES/USA</t>
+  </si>
+  <si>
+    <t>COX UPHOFF INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>TRANSFORM</t>
+  </si>
+  <si>
+    <t>JOHNSON &amp; JOHNSON / MENTOR</t>
+  </si>
+  <si>
+    <t>SURGITEK MED ENGINEERING CORP</t>
+  </si>
+  <si>
+    <t>INAMED CORPORATION COSTA RICA</t>
+  </si>
+  <si>
+    <t>POLY IMPLANT PROTHESES</t>
+  </si>
+  <si>
+    <t>MENTRO H/S, INC.</t>
+  </si>
+  <si>
+    <t>OILY IMPLANTS PROTHESES</t>
+  </si>
+  <si>
+    <t>SALIVE</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORP. INAMED</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL INC.</t>
+  </si>
+  <si>
+    <t>LIFECELL CORPORATION</t>
+  </si>
+  <si>
+    <t>SURGITEK (MEDICAL ENGINEERING NOW HANDLING THESE DEVICES,</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER-SCHULE</t>
+  </si>
+  <si>
+    <t>ALLERGAN; MCGAN</t>
+  </si>
+  <si>
+    <t>BRISTOL MYERS SQUIBB &amp; DOW</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP./A BRISTOL MYERS</t>
+  </si>
+  <si>
+    <t>INAMED MEDICAL CORP</t>
+  </si>
+  <si>
+    <t>METNOR H/S INC</t>
+  </si>
+  <si>
+    <t>UNKNOWWN</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORP. (INAMED)</t>
+  </si>
+  <si>
+    <t>SILTEX/UNKNOWN</t>
+  </si>
+  <si>
+    <t>AMERCIAN HEYER-SCHULTE</t>
+  </si>
+  <si>
+    <t>MENTOR CELTEX</t>
+  </si>
+  <si>
+    <t>NORWALKMEDICAL ENGINEERING CORP. A BRISTOL MYERS SQUIBB CO.</t>
+  </si>
+  <si>
+    <t>MENTRO H/S</t>
+  </si>
+  <si>
+    <t>HEYER SCHULTE, BAXTER HEALTH CARE</t>
+  </si>
+  <si>
+    <t>MENTOR H/S. INC</t>
+  </si>
+  <si>
+    <t>INAMED AESTHETICS - FORMERLY MCGHAN- ALLERGAN, INC</t>
+  </si>
+  <si>
+    <t>MENTOR 350CC</t>
+  </si>
+  <si>
+    <t>DOW DORING CORP</t>
+  </si>
+  <si>
+    <t>DOW CORNING  - WRIGHT MEDICAL</t>
+  </si>
+  <si>
+    <t>COX UPHOFF INTL. CORP.</t>
+  </si>
+  <si>
+    <t>NOT SURE - I WILL HAVE TO CALL.</t>
+  </si>
+  <si>
+    <t>HEYER-SCHULTE, SUBSIDIARY OF AMERICAN HOSP., SUPPLY CORP.</t>
+  </si>
+  <si>
+    <t>SURGI - TECH</t>
+  </si>
+  <si>
+    <t>BIOPLASTY INC.</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP./A BRISTOL MYERS SQUIBB CO.</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL COPORATION/REGISTRY TRACKING DEPT</t>
+  </si>
+  <si>
+    <t>MEME OR REPLICON*</t>
+  </si>
+  <si>
+    <t>MCHANNS</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTH CARE</t>
+  </si>
+  <si>
+    <t>MENTOR MEDICAL</t>
+  </si>
+  <si>
+    <t>CAMP INT., INC.</t>
+  </si>
+  <si>
+    <t>ROGER KLEIN LTD.</t>
+  </si>
+  <si>
+    <t>ROGER KLEIN LTD</t>
+  </si>
+  <si>
+    <t>SURGITEK MEDICAL ENG.</t>
+  </si>
+  <si>
+    <t>MCHAN</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP./A BRISTOL MYERS SQUIBB</t>
+  </si>
+  <si>
+    <t>HEYER-SCHULTE CORP SUB. OF AMERICAN HOSPITAL SUPPLY CORP.</t>
+  </si>
+  <si>
+    <t>SURGITEK (BRISTOL-MYERS CO.)</t>
+  </si>
+  <si>
+    <t>DOW CORNING. COPR.</t>
+  </si>
+  <si>
+    <t>HUTCHISON INTERNATIONAL INC.</t>
+  </si>
+  <si>
+    <t>MCGHAN - PER PT.</t>
+  </si>
+  <si>
+    <t>SILIMED CO</t>
+  </si>
+  <si>
+    <t>SURGITEC MEDICAL ENGINEERING CORP.</t>
+  </si>
+  <si>
+    <t>HEYER-SHULTE CORP</t>
+  </si>
+  <si>
+    <t>MENTOR, INC</t>
+  </si>
+  <si>
+    <t>V. MUELER DIV. BAXTER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>MENTOR/HC</t>
+  </si>
+  <si>
+    <t>INAMED (MCGHAN) MEDICAL</t>
+  </si>
+  <si>
+    <t>DOW-CORNING CORP.</t>
+  </si>
+  <si>
+    <t>MENTOR HC</t>
+  </si>
+  <si>
+    <t>MCGHAN IMPLANTS</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP, MEDICAL PRODUCTS</t>
+  </si>
+  <si>
+    <t>MGHAN</t>
+  </si>
+  <si>
+    <t>DOW DORNING CORP.</t>
+  </si>
+  <si>
+    <t>MENTOR          .</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP./DEVICE COMPLAINT INVESTIGATION</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL COPR.</t>
+  </si>
+  <si>
+    <t>AMERICAL HEYER-SCHULTE</t>
+  </si>
+  <si>
+    <t>NATURAL SURGICAL SPECIALISTS, INC. (SURGITECK)</t>
+  </si>
+  <si>
+    <t>MEDICOR 1MT</t>
+  </si>
+  <si>
+    <t>MENTOR MEDICAL SYSTEMS B. V.</t>
+  </si>
+  <si>
+    <t>SURGITEK MEDICAL/ MENTOR</t>
+  </si>
+  <si>
+    <t>OLYMPUS AMERICA</t>
+  </si>
+  <si>
+    <t>KLEIN</t>
+  </si>
+  <si>
+    <t>BIOSIL LTS.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP/MEDICAL PRODUCTS</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP. INC.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORPORATION MEDICAL DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>SURGITEK/BRISTOL-MYERS SQUIBB</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICA CORP.</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER-SCHULTE CORP.</t>
+  </si>
+  <si>
+    <t>MCGHAN SILICONE PROSTHESIS</t>
+  </si>
+  <si>
+    <t>DOW CORNING (MEDICAL DEVICE REPORTING)</t>
+  </si>
+  <si>
+    <t>MENTOR WORTHWIDE LLC</t>
+  </si>
+  <si>
+    <t>SURGITEK MEDICAL EQ.</t>
+  </si>
+  <si>
+    <t>MENTOR/HS, INC.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP. MEDICAL PRODUCTS DEVICE</t>
+  </si>
+  <si>
+    <t>HEYER-SCHULTE (BAXTER INTERNATIONAL)</t>
+  </si>
+  <si>
+    <t>MENTOR H/S,  INC.</t>
+  </si>
+  <si>
+    <t>V. MUELLER DIV., BAXTHER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP/MEDICAL DEVICE INVESTIGATION</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORP (INAMED NOW)</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP.  L.G. 05549-00</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE CORPORATION</t>
+  </si>
+  <si>
+    <t>C.R. BARD</t>
+  </si>
+  <si>
+    <t>P.I.P</t>
+  </si>
+  <si>
+    <t>MEDTRONIC XOMED INSTRUMENTATION S.A.S.</t>
+  </si>
+  <si>
+    <t>MENTOR / ALLERGAN</t>
+  </si>
+  <si>
+    <t>POLY IMPLANT PROTHESE (PIP)</t>
+  </si>
+  <si>
+    <t>MENTOR, HC.</t>
+  </si>
+  <si>
+    <t>DOW-CORNING CORP</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP., MEDICAL PRODUCTS</t>
+  </si>
+  <si>
+    <t>CUI-CORP</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORP. (3M)</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP/ A BRISTOL MYERS SQUIB CO</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP (SURGITEK)</t>
+  </si>
+  <si>
+    <t>DOW CORNING., WRIGHT MEDICAL TECH., INC.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP. MED DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>MENTOR TEXAS INC. (WORLDWIDE LLC)</t>
+  </si>
+  <si>
+    <t>SPECTRUM DESIGNS MEDICAL</t>
+  </si>
+  <si>
+    <t>MCGHAM MEDICAL COPR.</t>
+  </si>
+  <si>
+    <t>DOW CHEMICALS</t>
+  </si>
+  <si>
+    <t>NATURAL SURGICAL SPECIALTY, INC.</t>
+  </si>
+  <si>
+    <t>MENTOR HEALTHCARE</t>
+  </si>
+  <si>
+    <t>BAXTER V.MEULLER</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERGIN CORP.</t>
+  </si>
+  <si>
+    <t>POLYTECH SILIMED</t>
+  </si>
+  <si>
+    <t>ALLERGEN, INC.</t>
+  </si>
+  <si>
+    <t>CORPORATE CENTER</t>
+  </si>
+  <si>
+    <t>AMERICAH HEYER-SCHULTE</t>
+  </si>
+  <si>
+    <t>SURGITEK DIV OF CABOT MEDICAL ENGINEERING CORP</t>
+  </si>
+  <si>
+    <t>MCGHAW MEDICAL CORP.</t>
+  </si>
+  <si>
+    <t>COX UPHOFF, INC.</t>
+  </si>
+  <si>
+    <t>DOW CORNING BREAST IMPLANT PROSTHESIS</t>
+  </si>
+  <si>
+    <t>PIP, POLY IMPLANT PROSTHESIS</t>
+  </si>
+  <si>
+    <t>DOW CORNING, WRIGHT MEDICAL TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>3-M CO.</t>
+  </si>
+  <si>
+    <t>WEILAND GROUP LAS VEGS, NV INAMED AESTHETICS</t>
+  </si>
+  <si>
+    <t>COX-UPCOFF</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL PRODUCTS</t>
+  </si>
+  <si>
+    <t>MCGAHN MEDICAL CORPORAION</t>
+  </si>
+  <si>
+    <t>MENTOR (J AND J)</t>
+  </si>
+  <si>
+    <t>MENTOR HS INC.</t>
+  </si>
+  <si>
+    <t>3M CO. SURGICAL PRODUCTS DIV.</t>
+  </si>
+  <si>
+    <t>DOW CORNING /MEDICAL DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING.</t>
+  </si>
+  <si>
+    <t>BRISTOL-MYERS</t>
+  </si>
+  <si>
+    <t>INAMED AESTHETICS (FORMERLY MCGHAN MED CORP)</t>
+  </si>
+  <si>
+    <t>MCHAN CORPORATION</t>
+  </si>
+  <si>
+    <t>SPECTRUM DESIGNS, INC., DBA SPECTRUM DESIGNS MEDICAL</t>
+  </si>
+  <si>
+    <t>MENTOR SALINE FILLED IMPLANTS</t>
+  </si>
+  <si>
+    <t>3M/MCGHAN</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL/INAMED</t>
+  </si>
+  <si>
+    <t>ALLERGAN (INAMED AESTHETICS)</t>
+  </si>
+  <si>
+    <t>DOW-CORNING - NO LONGER IN BUSINESS</t>
+  </si>
+  <si>
+    <t>MENTRO H/S INC</t>
+  </si>
+  <si>
+    <t>DOW CORNING/MEDICAL DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>DOW CORNING MEDICAL PRODUCS</t>
+  </si>
+  <si>
+    <t>ALLERGAN (INAMED)</t>
+  </si>
+  <si>
+    <t>DOW CORNING, WRIGHT MEDICAL TECH., INC.</t>
+  </si>
+  <si>
+    <t>MCGHAN (NAMED CHANGED TO INAMED)</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGIEERING CORP.</t>
+  </si>
+  <si>
+    <t>INAMED - FORMERLY MCGHAN</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERS CORP.</t>
+  </si>
+  <si>
+    <t>P.I.P. OF AMERICA INC</t>
+  </si>
+  <si>
+    <t>INAMED COSTA RICA SA</t>
+  </si>
+  <si>
+    <t>HEYER SCHULTER</t>
+  </si>
+  <si>
+    <t>MCGHAN (NAMED CHANGE TO INAMED)</t>
+  </si>
+  <si>
+    <t>THE DOW CHEMICAHL COMPANY</t>
+  </si>
+  <si>
+    <t>MCGHAN, INC.</t>
+  </si>
+  <si>
+    <t>ALLERGAN MEDICAL INCORPORATED</t>
+  </si>
+  <si>
+    <t>PIP/USA, INC.</t>
+  </si>
+  <si>
+    <t>ALLERGAN MECUCAE</t>
+  </si>
+  <si>
+    <t>DOW CORING CORP.</t>
+  </si>
+  <si>
+    <t>COX-UPHOFF INTL.</t>
+  </si>
+  <si>
+    <t>MONETOR CORP</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP/ MEDICAL DEVICE INVESTIGATION</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP./A BRISTOL MYERS SQUIBB CO</t>
+  </si>
+  <si>
+    <t>DOW-CORNING CORP MEDICAL DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>MENTOR HEYER-SCHULTE</t>
+  </si>
+  <si>
+    <t>I AMED</t>
+  </si>
+  <si>
+    <t>COX-UPHOFF, INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>PIP, INC,</t>
+  </si>
+  <si>
+    <t>ZONA FRANCA METROPOLITANA</t>
+  </si>
+  <si>
+    <t>POLY IMPLANT PROTHESE / HERITAGE WORLDWIDE, INC.</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP/A BRISTOL MYERS SQUIBB CO</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORPL</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL - AKA ALLERGAN MEDICAL</t>
+  </si>
+  <si>
+    <t>MCGAHN MEDICAL CORP.</t>
+  </si>
+  <si>
+    <t>WRIGHT MFG CO., MIDKAND TERMINAL</t>
+  </si>
+  <si>
+    <t>INAMED AESTHETICS(FORMERLY MCGHAN MED. CORP.)</t>
+  </si>
+  <si>
+    <t>COX-UPHOFF INT'L</t>
+  </si>
+  <si>
+    <t>V. MUELLER DIV. BAXTER HEALTHCARE COPR</t>
+  </si>
+  <si>
+    <t>ETHICON, INC.</t>
+  </si>
+  <si>
+    <t>PIP, INC.E BRUXELLES</t>
+  </si>
+  <si>
+    <t>CIRCON CORP.</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP./A BRISTOL MYERS SQUIB CO.</t>
+  </si>
+  <si>
+    <t>UNK - IMPLANTED IN RUSSIA</t>
+  </si>
+  <si>
+    <t>SURGITECH ENGINEERING</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORP, A SUBSIDIARY OF INAMED</t>
+  </si>
+  <si>
+    <t>MCGAN MEDICAL CORP.</t>
+  </si>
+  <si>
+    <t>MENTOR CORP OFFICE</t>
+  </si>
+  <si>
+    <t>AMERICAN MEDICAL SUPPLIES</t>
+  </si>
+  <si>
+    <t>V. MUELLER O.V. BAXTER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>CUI-CORP.</t>
+  </si>
+  <si>
+    <t>POLY IMPLANTS PROSTHESIS USA, INC.</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL COMPANY</t>
+  </si>
+  <si>
+    <t>INAMED SANTA BABARA</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE CORP.;V. MUELLER DIV.</t>
+  </si>
+  <si>
+    <t>COX-UPHOFF CORP.</t>
+  </si>
+  <si>
+    <t>NATURAL SURGICAL SPECIALITIES, INC</t>
+  </si>
+  <si>
+    <t>INFRASONICS</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORP., REGISTRY/TRACKING DEPT</t>
+  </si>
+  <si>
+    <t>INAMED CORPORATION, SANTA BARBARA</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER-SCHULTE*</t>
+  </si>
+  <si>
+    <t>3M MCGHAN</t>
+  </si>
+  <si>
+    <t>KARL STORZ ENDOSCOPY AMERICA, INC.</t>
+  </si>
+  <si>
+    <t>MGGHAN MEDICAL CORP./3M</t>
+  </si>
+  <si>
+    <t>MENTOR IRVING TX</t>
+  </si>
+  <si>
+    <t>INAMED-COSTA RICA</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP., MED DEVICE REPORTING</t>
+  </si>
+  <si>
+    <t>V. MUELLER BAXTER HEALTCHCARE CORP.</t>
+  </si>
+  <si>
+    <t>(MCGHAN) MENTOR</t>
+  </si>
+  <si>
+    <t>COX-UP HOFF INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP CORPORATE CENTER</t>
+  </si>
+  <si>
+    <t>DOW-CORNING CORPORATION</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYES-SCHULTZ</t>
+  </si>
+  <si>
+    <t>MENTOR HS.</t>
+  </si>
+  <si>
+    <t>INAMED AESTHETICS (FORMERLY MCGHAN)</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER-SCHULTE PROSTHEIS</t>
+  </si>
+  <si>
+    <t>MENTOR COPR.</t>
+  </si>
+  <si>
+    <t>DOW-CORNOING</t>
+  </si>
+  <si>
+    <t>BECKER MAMMARY IMPLANTS</t>
+  </si>
+  <si>
+    <t>MENTOR TEXAS LP</t>
+  </si>
+  <si>
+    <t>DUPONT/ DOW CORNING/ MENTOR</t>
+  </si>
+  <si>
+    <t>DOW CORNING CRONINS</t>
+  </si>
+  <si>
+    <t>HEYER SHULTE CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORNING COPORATION</t>
+  </si>
+  <si>
+    <t>POLY IMPLANTS PROTHESES, SA</t>
+  </si>
+  <si>
+    <t>ALLERGAN/INAMED</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>MENTOR PRODUCT</t>
+  </si>
+  <si>
+    <t>MENTOR WORLDWIDE HEALTH, LLC</t>
+  </si>
+  <si>
+    <t>HEYER-SCHUTTE</t>
+  </si>
+  <si>
+    <t>MCGAHN MEDICAL CORPORATION</t>
+  </si>
+  <si>
+    <t>DOW CHEMICAL CO</t>
+  </si>
+  <si>
+    <t>UNKNOWN- PLACED</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP, A BRISTOL-MYERS SQUIBB CO</t>
+  </si>
+  <si>
+    <t>MCGHAN GEL SINGLE LUMEN</t>
+  </si>
+  <si>
+    <t>MENTOR H/S CORP</t>
+  </si>
+  <si>
+    <t>DYNCORP</t>
+  </si>
+  <si>
+    <t>MCGHAN MED.</t>
+  </si>
+  <si>
+    <t>MCGHAN CO</t>
+  </si>
+  <si>
+    <t>POREX SURGICAL</t>
+  </si>
+  <si>
+    <t>MENTOR CORPORATION PRP</t>
+  </si>
+  <si>
+    <t>MFR UNK</t>
+  </si>
+  <si>
+    <t>NATURAL SURGICAL SPECIALTIES MEME'</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER-SCHULTEE</t>
+  </si>
+  <si>
+    <t>NATURAL SURGICAL SPECIALTIES INC.</t>
+  </si>
+  <si>
+    <t>MENTHOL</t>
+  </si>
+  <si>
+    <t>AMERIAN HEYER-SCHULTE</t>
+  </si>
+  <si>
+    <t>MEGHAN / INAMED</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE CORP. (HEYER-SCHULTE)</t>
+  </si>
+  <si>
+    <t>CIRCON CORPORATION [NATURAL Y SURGICAL CORP]</t>
+  </si>
+  <si>
+    <t>UNKNOW FOR SURE</t>
+  </si>
+  <si>
+    <t>IMPLANTECH ASSOCIATES INC.</t>
+  </si>
+  <si>
+    <t>III ACQUISITION CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORNING, PNR</t>
+  </si>
+  <si>
+    <t>MENTOR WORLWIDE LLC</t>
+  </si>
+  <si>
+    <t>MCGHAM CORP.</t>
+  </si>
+  <si>
+    <t>DON CORNING</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL -3M</t>
+  </si>
+  <si>
+    <t>HYPER-SHULTE</t>
+  </si>
+  <si>
+    <t>DOW CHEMICAL CO.</t>
+  </si>
+  <si>
+    <t>3M HEALTHCARE (MCGHAN)</t>
+  </si>
+  <si>
+    <t>UNK             .</t>
+  </si>
+  <si>
+    <t>DOW CORNING WRIGHT/MENTOR</t>
+  </si>
+  <si>
+    <t>MENTOR H/S, INC. ATTN: PRODUCT EVAL. DEPT.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORPORATION MEDICAL PRODUCTS</t>
+  </si>
+  <si>
+    <t>POREX CORP</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORPORATION CUSTOMER RELATIONS DEPARTMENT</t>
+  </si>
+  <si>
+    <t>MCGHAN  MEDICAL CORP, REGISTRY TRACKING DEPT</t>
+  </si>
+  <si>
+    <t>INAMED/ ALLERGAN</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDOCAL CORP.</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER -SCHULTE</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE CORP. IV SYSTEMS DIV.</t>
+  </si>
+  <si>
+    <t>COX UPHOFF AKA MCGHAN MEDICAL</t>
+  </si>
+  <si>
+    <t>MCGHAN/INAMED CORP</t>
+  </si>
+  <si>
+    <t>SILIMED INC.</t>
+  </si>
+  <si>
+    <t>ECRI</t>
+  </si>
+  <si>
+    <t>NATURAL-Y-SURGICAL SPECIALTIES, INC.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CLAIMS ADMINISTRATION FACILITY</t>
+  </si>
+  <si>
+    <t>MENTOR H/S PRODUCT EVALUATION GROUP</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINERRING CORP./A BRISTOL MYERS SQUIB CO</t>
+  </si>
+  <si>
+    <t>IMANED USA</t>
+  </si>
+  <si>
+    <t>SURGITEK/ MENTOR</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MCGANN MEDICAL</t>
+  </si>
+  <si>
+    <t>DOW CORNING/MEDICAL DEVICE REPORTING 118 BLDG</t>
+  </si>
+  <si>
+    <t>AMERMICAN HEYER-SCHULTE</t>
+  </si>
+  <si>
+    <t>MCGHAN MED CORP INAMED CORPORATION</t>
+  </si>
+  <si>
+    <t>HYER SHULTE</t>
+  </si>
+  <si>
+    <t>MENTOR CORPORATION-TEXAS</t>
+  </si>
+  <si>
+    <t>ALLERGAN IMPLANT 650CC</t>
+  </si>
+  <si>
+    <t>MENTOR CORP, WORLDWIDE</t>
+  </si>
+  <si>
+    <t>SURGITEK/MEDICAL ENGINEENING</t>
+  </si>
+  <si>
+    <t>PIP, AMERICA</t>
+  </si>
+  <si>
+    <t>AMERICAN HAYER-SHULTE</t>
+  </si>
+  <si>
+    <t>MCGAN</t>
+  </si>
+  <si>
+    <t>MGHANN MEDICAL</t>
+  </si>
+  <si>
+    <t>CUX-UPHOFF (CUI)</t>
+  </si>
+  <si>
+    <t>J &amp; J</t>
+  </si>
+  <si>
+    <t>MEDLINE INDUSTRIES</t>
+  </si>
+  <si>
+    <t>HEYER SCHULTE CORP, SUBSIDARY</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORPORATION - MEDICAL PRODUCTS</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDIAL CORP. (INAMED)</t>
+  </si>
+  <si>
+    <t>POREX MEDICAL DIV. POREX TECHNOLOGIES CORP.</t>
+  </si>
+  <si>
+    <t>MENTOR, PRODUCT EVALUATION DEPT.</t>
+  </si>
+  <si>
+    <t>ALLERGAN / MCGHAN</t>
+  </si>
+  <si>
+    <t>DOWC CORNING CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORNING, MED PRODUCTS</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORPORTATION</t>
+  </si>
+  <si>
+    <t>SURGITEK MEDICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>HEYER-SCHULTE CORP SUB OF AMERICAN HOSP SUPPLY CORP</t>
+  </si>
+  <si>
+    <t>MENTO H/S INC.</t>
+  </si>
+  <si>
+    <t>SURGITEK (CABOT MEDICAL)</t>
+  </si>
+  <si>
+    <t>CUI, INC.</t>
+  </si>
+  <si>
+    <t>ANDOVER SURGICAL DAY CARE  CLINIC</t>
+  </si>
+  <si>
+    <t>PIPI, INC.</t>
+  </si>
+  <si>
+    <t>MENTOR/BAXTER</t>
+  </si>
+  <si>
+    <t>DOW CORNING (NO LONGER IN BUSINESS)</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP./A BRISTOL MYERS SQUIB CO</t>
+  </si>
+  <si>
+    <t>ZIMMER, INC.</t>
+  </si>
+  <si>
+    <t>BRISTOL MEYERS (MENTOR)</t>
+  </si>
+  <si>
+    <t>DOWCORNING CORP</t>
+  </si>
+  <si>
+    <t>MENTO H/S</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER-SCHULTE THESIS</t>
+  </si>
+  <si>
+    <t>MCCGHAN MEDICAL CORP.</t>
+  </si>
+  <si>
+    <t>EUROMED, INC.</t>
+  </si>
+  <si>
+    <t>JOHNSON &amp; JOHNSON</t>
+  </si>
+  <si>
+    <t>INAMED MEDICAL CORP.</t>
+  </si>
+  <si>
+    <t>HUTCHISON INTERNATIONAL INC</t>
+  </si>
+  <si>
+    <t>SURGITEK A CABOT MEDICAL CO. (MED ENGINEERING CORP.)</t>
+  </si>
+  <si>
+    <t>V. MUELLER DIV. BAXTER HEALTHCARE, CORP.</t>
+  </si>
+  <si>
+    <t>SURGITEK CORP.</t>
+  </si>
+  <si>
+    <t>MENTOR UROLOGY, INC.</t>
+  </si>
+  <si>
+    <t>N/I</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER-SCHULTE (CURRENTLY V. MUELLER DIVISION OF BAX</t>
+  </si>
+  <si>
+    <t>HEYER-SCHULTE CORP. DIV. OF AMERICAN HOSP. SUPPLY</t>
+  </si>
+  <si>
+    <t>LIPOMATRIX  INC.</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL, 3M</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE CORP. BAXTER/3M</t>
+  </si>
+  <si>
+    <t>V. MULLER DIV. BAXTER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTCHARE CORP.</t>
+  </si>
+  <si>
+    <t>MCGHAN INAMED / ALLERGAN</t>
+  </si>
+  <si>
+    <t>NATURAL Y SURGICAL SPECIALTIES(SURGITEK A/BRISTOL MEYERS)</t>
+  </si>
+  <si>
+    <t>MCGHAM CORPORATION</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP./A BRISTOL MYERS SQUIB</t>
+  </si>
+  <si>
+    <t>ORIGINAL MANUFACTURER UNK</t>
+  </si>
+  <si>
+    <t>SILTEX BECKER MENTOR</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP,</t>
+  </si>
+  <si>
+    <t>UNK - IMPLANTED IN ANOTHER INSTITUTION</t>
+  </si>
+  <si>
+    <t>V. MUELLER DIV. BAXTER</t>
+  </si>
+  <si>
+    <t>MCGHAN (3M) MEDICAL, CORP.</t>
+  </si>
+  <si>
+    <t>BRENNAN MEDICAL, INC.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CHEMICAL COMPANY</t>
+  </si>
+  <si>
+    <t>HOWMEDICA, INC.</t>
+  </si>
+  <si>
+    <t>BAXTER V MUELLER</t>
+  </si>
+  <si>
+    <t>DOWCORN CORP.</t>
+  </si>
+  <si>
+    <t>INK</t>
+  </si>
+  <si>
+    <t>MENTOR HS CORP.</t>
+  </si>
+  <si>
+    <t>AMRICAN HEYER-SCHULTE</t>
+  </si>
+  <si>
+    <t>MCGHAN/SURGICAL PRODUCTS DIVISION/3M</t>
+  </si>
+  <si>
+    <t>DOW CORNING/ IMPLANT INFO CTR</t>
+  </si>
+  <si>
+    <t>3M HEALTHCARE</t>
+  </si>
+  <si>
+    <t>ALLERGAN (INAMED CORP)</t>
+  </si>
+  <si>
+    <t>MEDIENGI ENGINEERING CORP.</t>
+  </si>
+  <si>
+    <t>MC GHAN MEDICAL, INC.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP. / IMPLANT INFO CTR</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP./MEDICAL PRODUCTS</t>
+  </si>
+  <si>
+    <t>AMERICAN MEDICAL SYSTEM</t>
+  </si>
+  <si>
+    <t>DOW CORNING COMPANY</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYERS-SCHULTE</t>
+  </si>
+  <si>
+    <t>SURGITEK/MEC</t>
+  </si>
+  <si>
+    <t>HEYER-SCHULTE CORP. SUB OF AMERICAN HOSPITAL SUPPLY CORP.</t>
+  </si>
+  <si>
+    <t>BIO PLASTY, INC.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP.G RD</t>
+  </si>
+  <si>
+    <t>MENTOR CO.</t>
+  </si>
+  <si>
+    <t>HEYER-SCHULTE CORP</t>
+  </si>
+  <si>
+    <t>INAMED COSTA RICAN</t>
+  </si>
+  <si>
+    <t>MAGHAN MEDICAL CORP.</t>
+  </si>
+  <si>
+    <t>AMERICAN HEYER SHULTE</t>
+  </si>
+  <si>
+    <t>MCGAAN MEDICAL CORP</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORPORATION (SANTA BARBARA)</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP. IMPLANT INFO CTR</t>
+  </si>
+  <si>
+    <t>HEYER SCHULTE/BAXTER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>SURGITEX CABOT MEDICAL CORPORATION</t>
+  </si>
+  <si>
+    <t>MONTOR ADVANTAGE WARRENTY</t>
+  </si>
+  <si>
+    <t>COX-UPHALF, INT'L</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP., MEDICAL PRODUCTS DIV.</t>
+  </si>
+  <si>
+    <t>CUI, CORP.</t>
+  </si>
+  <si>
+    <t>BOSTON SCIENTIFIC WAYNE</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL CORP, INAMED</t>
+  </si>
+  <si>
+    <t>MENTOR TEXAS L.P.</t>
+  </si>
+  <si>
+    <t>WRIGHT MANUFACTURING CORP.</t>
+  </si>
+  <si>
+    <t>BAXTER INTERNATIONAL/ HEYER SCHULTE</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE CORP</t>
+  </si>
+  <si>
+    <t>POLY IMPLANTS PROSTHESES - USA, INC.</t>
+  </si>
+  <si>
+    <t>MENTOR, H/S, INC.</t>
+  </si>
+  <si>
+    <t>UNK CORNING CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORING INC.</t>
+  </si>
+  <si>
+    <t>ALLERGAN/HUTCHINSON</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP HEALTHCARE</t>
+  </si>
+  <si>
+    <t>MENTO</t>
+  </si>
+  <si>
+    <t>AMERICAN STERILIZER CO.</t>
+  </si>
+  <si>
+    <t>UNABLE TO DETERMINE MANUFACTURER/VINCENT HEALTHCARE</t>
+  </si>
+  <si>
+    <t>MENTOR H/C</t>
+  </si>
+  <si>
+    <t>MCGHAM MEDICAL CORP.</t>
+  </si>
+  <si>
+    <t>BANKRUPTCY</t>
+  </si>
+  <si>
+    <t>COX-UPHOFF INTL., INC.</t>
+  </si>
+  <si>
+    <t>UNK PT THINKS MAY BE DOW CORNING</t>
+  </si>
+  <si>
+    <t>V. MEULLER DIV BAXTER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>MCGHAN MEDICAL/ALLERGAN</t>
+  </si>
+  <si>
+    <t>UNDETERMINABLE, BUT SURGEON THINKS DOW CORNING.</t>
+  </si>
+  <si>
+    <t>DOW CORNING (CO DISSOLVED)</t>
+  </si>
+  <si>
+    <t>SWANSON</t>
+  </si>
+  <si>
+    <t>POREX TECHNOLOGIES CORP. OF AMERICA</t>
+  </si>
+  <si>
+    <t>DOW CORNING 200 CC SILICONE BREST IMPLANT</t>
+  </si>
+  <si>
+    <t>MEGHAN MED</t>
+  </si>
+  <si>
+    <t>COX UPKOFF INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>ALLERGAN NE</t>
+  </si>
+  <si>
+    <t>MENTOR  - SMOOTH SILICONE IMPLANT</t>
+  </si>
+  <si>
+    <t>SURGITEK - BRISTOL MYERS SQUIBB</t>
+  </si>
+  <si>
+    <t>MCGHAN STYLE 168 TEXTURED BIOCELL (SALINE FILLED)</t>
+  </si>
+  <si>
+    <t>INMED</t>
+  </si>
+  <si>
+    <t>PMT CORPORATION</t>
+  </si>
+  <si>
+    <t>BRISTOL MYERS SQUIBB MANUFACTURING</t>
+  </si>
+  <si>
+    <t>COX-UPHUFF</t>
+  </si>
+  <si>
+    <t>MENTOR TEXAS OPERATIONS</t>
+  </si>
+  <si>
+    <t>IOW CORNING CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP.,</t>
+  </si>
+  <si>
+    <t>CUI-COPR.</t>
+  </si>
+  <si>
+    <t>DOW CORNING (NOT SURE)</t>
+  </si>
+  <si>
+    <t>V. MUELLER DIV. BAXTER HEALTCARE CORP.</t>
+  </si>
+  <si>
+    <t>MENTOR CORP PRP</t>
+  </si>
+  <si>
+    <t>MCGHAN MED COMP</t>
+  </si>
+  <si>
+    <t>DOW CORNING-WRIGHT</t>
+  </si>
+  <si>
+    <t>ALLERGRAN</t>
+  </si>
+  <si>
+    <t>MEDTOR, INC.</t>
+  </si>
+  <si>
+    <t>INAMED CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORNING CORP. MEDICAL DEVICE REPORTINT</t>
+  </si>
+  <si>
+    <t>MCGHAN CORPORATE HEADQUARTERS</t>
+  </si>
+  <si>
+    <t>V. MUELLER DIV BAXTER HEALTHCARE CORP.</t>
+  </si>
+  <si>
+    <t>DOW CORING</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP. (A BRISTOL-MYERS-SQUIBB CO.)</t>
+  </si>
+  <si>
+    <t>BIOMANUFACTURING INC.</t>
+  </si>
+  <si>
+    <t>BAXTER HEALTHCARE SURGERY GROUP</t>
+  </si>
+  <si>
+    <t>MEDICAL ENGINEERING CORP./ A BRISTOL MYERS SQUIB</t>
+  </si>
+  <si>
+    <t>BRISTOL MEYER/ MEDICAL ENGINNER CORP.</t>
+  </si>
+  <si>
+    <t>NATIONAL PATIENT CARE SYSTEM</t>
+  </si>
+  <si>
+    <t>MENTOR CORP OFFICE, DEVICE TRACKING</t>
+  </si>
+  <si>
+    <t>INAMED CORP, DEVICE ANALYSIS LAB</t>
+  </si>
+  <si>
+    <t>MENTOR H/S,</t>
+  </si>
+  <si>
+    <t>MENTOR HEYER SCHULTE</t>
+  </si>
+  <si>
+    <t>DOWL CORNING/MENTOR</t>
+  </si>
+  <si>
+    <t>BRISTOL-MYERS MEDICAL ENGINEERING CORP.</t>
   </si>
 </sst>
 </file>
@@ -21967,10 +24083,6836 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B851"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>7202</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6380</v>
+      </c>
+      <c r="B3">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6603</v>
+      </c>
+      <c r="B4">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7205</v>
+      </c>
+      <c r="B7">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7206</v>
+      </c>
+      <c r="B8">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7061</v>
+      </c>
+      <c r="B9">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7207</v>
+      </c>
+      <c r="B10">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6972</v>
+      </c>
+      <c r="B11">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7011</v>
+      </c>
+      <c r="B13">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7208</v>
+      </c>
+      <c r="B14">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7032</v>
+      </c>
+      <c r="B15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6940</v>
+      </c>
+      <c r="B17">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5217</v>
+      </c>
+      <c r="B18">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6132</v>
+      </c>
+      <c r="B19">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7046</v>
+      </c>
+      <c r="B20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B21">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6318</v>
+      </c>
+      <c r="B23">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7209</v>
+      </c>
+      <c r="B24">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7210</v>
+      </c>
+      <c r="B25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7021</v>
+      </c>
+      <c r="B26">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6892</v>
+      </c>
+      <c r="B27">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7054</v>
+      </c>
+      <c r="B28">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6922</v>
+      </c>
+      <c r="B29">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6575</v>
+      </c>
+      <c r="B30">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7211</v>
+      </c>
+      <c r="B31">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6938</v>
+      </c>
+      <c r="B32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B33">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6989</v>
+      </c>
+      <c r="B34">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>7212</v>
+      </c>
+      <c r="B35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>398</v>
+      </c>
+      <c r="B36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7213</v>
+      </c>
+      <c r="B37">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7214</v>
+      </c>
+      <c r="B38">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7215</v>
+      </c>
+      <c r="B40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7216</v>
+      </c>
+      <c r="B41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7014</v>
+      </c>
+      <c r="B42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7217</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>7218</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7219</v>
+      </c>
+      <c r="B45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>7220</v>
+      </c>
+      <c r="B46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>7221</v>
+      </c>
+      <c r="B47">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>7035</v>
+      </c>
+      <c r="B48">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7222</v>
+      </c>
+      <c r="B49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>6931</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>7223</v>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>7224</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>6615</v>
+      </c>
+      <c r="B53">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>6396</v>
+      </c>
+      <c r="B54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>7225</v>
+      </c>
+      <c r="B55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>7226</v>
+      </c>
+      <c r="B56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>7227</v>
+      </c>
+      <c r="B57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>7228</v>
+      </c>
+      <c r="B58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>7229</v>
+      </c>
+      <c r="B59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>5349</v>
+      </c>
+      <c r="B60">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>7230</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>4474</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>7231</v>
+      </c>
+      <c r="B63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>7232</v>
+      </c>
+      <c r="B64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>6943</v>
+      </c>
+      <c r="B65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>6961</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>6898</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>6954</v>
+      </c>
+      <c r="B68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>7233</v>
+      </c>
+      <c r="B69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>7234</v>
+      </c>
+      <c r="B70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>7235</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>5743</v>
+      </c>
+      <c r="B72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>6981</v>
+      </c>
+      <c r="B73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>7236</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>5230</v>
+      </c>
+      <c r="B75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>7237</v>
+      </c>
+      <c r="B76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>7238</v>
+      </c>
+      <c r="B77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>7001</v>
+      </c>
+      <c r="B78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>7239</v>
+      </c>
+      <c r="B79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>5494</v>
+      </c>
+      <c r="B80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>7240</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>7241</v>
+      </c>
+      <c r="B82">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>718</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>7243</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>7244</v>
+      </c>
+      <c r="B86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>7246</v>
+      </c>
+      <c r="B88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>5871</v>
+      </c>
+      <c r="B89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>7247</v>
+      </c>
+      <c r="B90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>6757</v>
+      </c>
+      <c r="B91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>6932</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>7249</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>7250</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>7252</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>7253</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>7255</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>7016</v>
+      </c>
+      <c r="B102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>7256</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>7258</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>7259</v>
+      </c>
+      <c r="B106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>6897</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>7261</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>7262</v>
+      </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>5327</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>7264</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>7265</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>7266</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>7267</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>4644</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>6811</v>
+      </c>
+      <c r="B118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>7268</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>6986</v>
+      </c>
+      <c r="B120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>6761</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>4712</v>
+      </c>
+      <c r="B122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>7269</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>4650</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>7270</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>7271</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>7272</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>7273</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>7274</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>7275</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>6434</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>7276</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>7277</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>6800</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>7278</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>7279</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>6997</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>7280</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>7281</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>7282</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>7283</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>7284</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>7285</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>7286</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>6858</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>7287</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>7288</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>7289</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>440</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>7290</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>7291</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>6466</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>7292</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>7293</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>7294</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>5363</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>7295</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>7296</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>6626</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>6893</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>6926</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>6728</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>7297</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>7298</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>7299</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>7300</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>7301</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>7302</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>7303</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>7304</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>262</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>7305</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>7306</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>7307</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>7308</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>7309</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>7310</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>7311</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>7312</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>7313</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>7314</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>7315</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>7316</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>7317</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>7318</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>7319</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>7320</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>7321</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>7322</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>7323</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>7324</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>7325</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>7326</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>7327</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>7328</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>7329</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>4564</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>7330</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>6849</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>7331</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>7332</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>7333</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>7334</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>7335</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>7336</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>7337</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>6336</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>7338</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>7339</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>7340</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>5457</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>7341</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>7342</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>7343</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>7344</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>7345</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>7346</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>7347</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>7348</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>7349</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>5303</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>7350</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>7351</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>7352</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>7353</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>7354</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>7355</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>7356</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>7357</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>7358</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>7359</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>7360</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>7361</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>7362</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>7363</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>7364</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>6590</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>7365</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>7366</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>7367</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>7368</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>7369</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>7370</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>7371</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>7372</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>7373</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>7374</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>7375</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>7376</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>7377</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>7378</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>7379</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>7380</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>6710</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>7381</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>7382</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>7383</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>7384</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>7385</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>7386</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>7387</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>7388</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>7389</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>7390</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>7391</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>7392</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>6388</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>7393</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>7394</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>7395</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>7396</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>7397</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>7398</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>7399</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>7400</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>6930</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>7401</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>7402</v>
+      </c>
+      <c r="B284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>7403</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>7404</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>7405</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>7406</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>7407</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>7408</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>7409</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>7410</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>7411</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>7412</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>7413</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>7414</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>7415</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>7416</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>7417</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>7418</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>7419</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>7420</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>6476</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>6464</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>7421</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>7422</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>7423</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>5853</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>6110</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>7424</v>
+      </c>
+      <c r="B310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>6424</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>7425</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>7426</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>7427</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>5186</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>7428</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>7429</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>7430</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>7431</v>
+      </c>
+      <c r="B319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>7432</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>7433</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>7434</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>7435</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>7436</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>7437</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>7438</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>7439</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>7440</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>7441</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>7442</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>7443</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>7444</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>7445</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>7446</v>
+      </c>
+      <c r="B334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>6432</v>
+      </c>
+      <c r="B335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>7447</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>7448</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>7449</v>
+      </c>
+      <c r="B338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>7450</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>7451</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>7452</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>7453</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>7454</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>7455</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>7456</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>7457</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>7458</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>7459</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>7460</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>7461</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>7462</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>7463</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>7464</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>7465</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>7466</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>6471</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>7467</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>7468</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>7469</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>7470</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>7471</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>7472</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>7473</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>7474</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>7475</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>7476</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>5889</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>7477</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>7478</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>7479</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>7480</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>7481</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>7482</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>7483</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>7484</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>7485</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>7486</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>7487</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>7488</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>7489</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>7490</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>7491</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>7492</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>7493</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>7494</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>7495</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>7496</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>6971</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>7497</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>7498</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>7499</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>7500</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>7501</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>7502</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>6729</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>7503</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>7504</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>7505</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>7506</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>7507</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>7508</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>7509</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>7510</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>7511</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>7512</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>7513</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>7514</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>5214</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>5719</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>7515</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>7516</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>7517</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>7518</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>7519</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>7520</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>7521</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>7522</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>7523</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>7524</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>7525</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>7526</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>7527</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>7528</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>7529</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>7530</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>7531</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>7532</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>7533</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>7534</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>7535</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>7536</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>7537</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>7538</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>7539</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>7540</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>7541</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>7542</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>7543</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>7544</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>7545</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>7546</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>7547</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>7548</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>7549</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>7550</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>7551</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>28</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>7552</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>7553</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>7554</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>7555</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>7556</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>6417</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>7557</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>7008</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>7558</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>7559</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>7560</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>7561</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>7562</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>7563</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>7564</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>6447</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>7565</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>7566</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>7567</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>7568</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>7569</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>7570</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>7571</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>5128</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>7572</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>5561</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>7573</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>7574</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>7575</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>7576</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>7577</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>7578</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>7579</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>7580</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>7581</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>7582</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>7583</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>7584</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>7585</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>7586</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>7587</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>7588</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>7589</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>7590</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>7591</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>6918</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>7592</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>7593</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>7594</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>7595</v>
+      </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>7596</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>7597</v>
+      </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>5614</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>7598</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>7599</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>7600</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>7601</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>7602</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>7603</v>
+      </c>
+      <c r="B515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>7604</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>7605</v>
+      </c>
+      <c r="B517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>7606</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>7607</v>
+      </c>
+      <c r="B519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>7608</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>7609</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>1</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>7610</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>7611</v>
+      </c>
+      <c r="B525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>7612</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>7613</v>
+      </c>
+      <c r="B527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>7614</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>7615</v>
+      </c>
+      <c r="B529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>7616</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>7617</v>
+      </c>
+      <c r="B531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>7618</v>
+      </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>7619</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>7620</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>7621</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>7622</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>7623</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>7624</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>7625</v>
+      </c>
+      <c r="B539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>7626</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>7627</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>7628</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>4673</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>7629</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>5731</v>
+      </c>
+      <c r="B545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>7630</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>7631</v>
+      </c>
+      <c r="B547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>7632</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>7633</v>
+      </c>
+      <c r="B549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>7634</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>7635</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>7636</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>7637</v>
+      </c>
+      <c r="B553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>516</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>7638</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>7639</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>7640</v>
+      </c>
+      <c r="B557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>7641</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>7642</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>7643</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>7644</v>
+      </c>
+      <c r="B561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>7645</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>7646</v>
+      </c>
+      <c r="B563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>7647</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>7648</v>
+      </c>
+      <c r="B565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>7649</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>7650</v>
+      </c>
+      <c r="B567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>7651</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>4800</v>
+      </c>
+      <c r="B569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>7652</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>7653</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>7654</v>
+      </c>
+      <c r="B573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>7655</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>7656</v>
+      </c>
+      <c r="B575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>7657</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>7658</v>
+      </c>
+      <c r="B577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>7659</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>7660</v>
+      </c>
+      <c r="B579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>7661</v>
+      </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>7662</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>7663</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>7664</v>
+      </c>
+      <c r="B583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>7665</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>7666</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>7667</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>7668</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>7669</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>7670</v>
+      </c>
+      <c r="B589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>7671</v>
+      </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>7672</v>
+      </c>
+      <c r="B591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>6832</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>7673</v>
+      </c>
+      <c r="B593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>7674</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>7675</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>7676</v>
+      </c>
+      <c r="B596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>7677</v>
+      </c>
+      <c r="B597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>7678</v>
+      </c>
+      <c r="B598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>7679</v>
+      </c>
+      <c r="B599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>7680</v>
+      </c>
+      <c r="B600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>7681</v>
+      </c>
+      <c r="B601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>7682</v>
+      </c>
+      <c r="B602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>5911</v>
+      </c>
+      <c r="B603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>5184</v>
+      </c>
+      <c r="B604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>7683</v>
+      </c>
+      <c r="B605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>5825</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>7684</v>
+      </c>
+      <c r="B607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>7685</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>7686</v>
+      </c>
+      <c r="B609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>7687</v>
+      </c>
+      <c r="B610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>7688</v>
+      </c>
+      <c r="B611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>6460</v>
+      </c>
+      <c r="B612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>7689</v>
+      </c>
+      <c r="B613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>7690</v>
+      </c>
+      <c r="B614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>7691</v>
+      </c>
+      <c r="B615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>7692</v>
+      </c>
+      <c r="B616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>7693</v>
+      </c>
+      <c r="B617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>7694</v>
+      </c>
+      <c r="B618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>7695</v>
+      </c>
+      <c r="B619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>7696</v>
+      </c>
+      <c r="B620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>7697</v>
+      </c>
+      <c r="B621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>7698</v>
+      </c>
+      <c r="B622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>7699</v>
+      </c>
+      <c r="B623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>7700</v>
+      </c>
+      <c r="B624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>7701</v>
+      </c>
+      <c r="B625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>7702</v>
+      </c>
+      <c r="B626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>7703</v>
+      </c>
+      <c r="B627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>7704</v>
+      </c>
+      <c r="B628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>7705</v>
+      </c>
+      <c r="B629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>7706</v>
+      </c>
+      <c r="B630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>7707</v>
+      </c>
+      <c r="B631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>7708</v>
+      </c>
+      <c r="B632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>7709</v>
+      </c>
+      <c r="B633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>7710</v>
+      </c>
+      <c r="B634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>7711</v>
+      </c>
+      <c r="B635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>7712</v>
+      </c>
+      <c r="B636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>7713</v>
+      </c>
+      <c r="B637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>6244</v>
+      </c>
+      <c r="B638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>7714</v>
+      </c>
+      <c r="B639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>5546</v>
+      </c>
+      <c r="B640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>7715</v>
+      </c>
+      <c r="B641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>7716</v>
+      </c>
+      <c r="B642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>7717</v>
+      </c>
+      <c r="B643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>7718</v>
+      </c>
+      <c r="B644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>7719</v>
+      </c>
+      <c r="B645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>7720</v>
+      </c>
+      <c r="B646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>7721</v>
+      </c>
+      <c r="B647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>7722</v>
+      </c>
+      <c r="B648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>7723</v>
+      </c>
+      <c r="B650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>7724</v>
+      </c>
+      <c r="B651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>7725</v>
+      </c>
+      <c r="B652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>7726</v>
+      </c>
+      <c r="B653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>7727</v>
+      </c>
+      <c r="B654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>7728</v>
+      </c>
+      <c r="B655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>7729</v>
+      </c>
+      <c r="B656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>7730</v>
+      </c>
+      <c r="B657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>6837</v>
+      </c>
+      <c r="B658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>7731</v>
+      </c>
+      <c r="B659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>7732</v>
+      </c>
+      <c r="B660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>7733</v>
+      </c>
+      <c r="B661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>7734</v>
+      </c>
+      <c r="B662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>7735</v>
+      </c>
+      <c r="B663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>7736</v>
+      </c>
+      <c r="B664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>7737</v>
+      </c>
+      <c r="B665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>7738</v>
+      </c>
+      <c r="B666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>7739</v>
+      </c>
+      <c r="B667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>7740</v>
+      </c>
+      <c r="B668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>7741</v>
+      </c>
+      <c r="B669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>7742</v>
+      </c>
+      <c r="B670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>7743</v>
+      </c>
+      <c r="B671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>7744</v>
+      </c>
+      <c r="B672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>7745</v>
+      </c>
+      <c r="B673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>7746</v>
+      </c>
+      <c r="B674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>7747</v>
+      </c>
+      <c r="B676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>7748</v>
+      </c>
+      <c r="B677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>7749</v>
+      </c>
+      <c r="B678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>7750</v>
+      </c>
+      <c r="B679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>7751</v>
+      </c>
+      <c r="B680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>7752</v>
+      </c>
+      <c r="B681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>7753</v>
+      </c>
+      <c r="B682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>7754</v>
+      </c>
+      <c r="B683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>7755</v>
+      </c>
+      <c r="B684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>7756</v>
+      </c>
+      <c r="B685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>7757</v>
+      </c>
+      <c r="B686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>7758</v>
+      </c>
+      <c r="B687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>7759</v>
+      </c>
+      <c r="B688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>6123</v>
+      </c>
+      <c r="B689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>7760</v>
+      </c>
+      <c r="B690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>7761</v>
+      </c>
+      <c r="B691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>7762</v>
+      </c>
+      <c r="B692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>7763</v>
+      </c>
+      <c r="B693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>7764</v>
+      </c>
+      <c r="B694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>7765</v>
+      </c>
+      <c r="B695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>7766</v>
+      </c>
+      <c r="B696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>7767</v>
+      </c>
+      <c r="B697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>7768</v>
+      </c>
+      <c r="B698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>7769</v>
+      </c>
+      <c r="B699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>7770</v>
+      </c>
+      <c r="B700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>7771</v>
+      </c>
+      <c r="B701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>7772</v>
+      </c>
+      <c r="B702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>7773</v>
+      </c>
+      <c r="B703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>7774</v>
+      </c>
+      <c r="B704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>7775</v>
+      </c>
+      <c r="B705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>7776</v>
+      </c>
+      <c r="B706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>7777</v>
+      </c>
+      <c r="B707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>7778</v>
+      </c>
+      <c r="B708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>7779</v>
+      </c>
+      <c r="B709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>7780</v>
+      </c>
+      <c r="B710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>7781</v>
+      </c>
+      <c r="B711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>7782</v>
+      </c>
+      <c r="B712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>7783</v>
+      </c>
+      <c r="B713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>7784</v>
+      </c>
+      <c r="B714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>7785</v>
+      </c>
+      <c r="B715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>7786</v>
+      </c>
+      <c r="B716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>7787</v>
+      </c>
+      <c r="B717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>7788</v>
+      </c>
+      <c r="B718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>7789</v>
+      </c>
+      <c r="B719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>6899</v>
+      </c>
+      <c r="B720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>7790</v>
+      </c>
+      <c r="B722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>7791</v>
+      </c>
+      <c r="B723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>7792</v>
+      </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>7793</v>
+      </c>
+      <c r="B725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>7794</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>7795</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>7798</v>
+      </c>
+      <c r="B730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>7799</v>
+      </c>
+      <c r="B731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>7800</v>
+      </c>
+      <c r="B732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>7801</v>
+      </c>
+      <c r="B733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>7802</v>
+      </c>
+      <c r="B734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>7803</v>
+      </c>
+      <c r="B735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>7804</v>
+      </c>
+      <c r="B736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>7805</v>
+      </c>
+      <c r="B737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>7806</v>
+      </c>
+      <c r="B738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>7807</v>
+      </c>
+      <c r="B739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>7808</v>
+      </c>
+      <c r="B740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>7809</v>
+      </c>
+      <c r="B741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>7810</v>
+      </c>
+      <c r="B742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>7811</v>
+      </c>
+      <c r="B743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>7812</v>
+      </c>
+      <c r="B744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>7813</v>
+      </c>
+      <c r="B745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>7814</v>
+      </c>
+      <c r="B746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>7815</v>
+      </c>
+      <c r="B747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>7816</v>
+      </c>
+      <c r="B748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>7817</v>
+      </c>
+      <c r="B749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>7818</v>
+      </c>
+      <c r="B750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>7819</v>
+      </c>
+      <c r="B751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>7820</v>
+      </c>
+      <c r="B752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>7821</v>
+      </c>
+      <c r="B753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>7822</v>
+      </c>
+      <c r="B754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>7823</v>
+      </c>
+      <c r="B755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>6419</v>
+      </c>
+      <c r="B756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>7824</v>
+      </c>
+      <c r="B757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>7825</v>
+      </c>
+      <c r="B758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>7826</v>
+      </c>
+      <c r="B759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>7827</v>
+      </c>
+      <c r="B760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>7828</v>
+      </c>
+      <c r="B761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>7829</v>
+      </c>
+      <c r="B762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>7830</v>
+      </c>
+      <c r="B763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>7831</v>
+      </c>
+      <c r="B764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>7832</v>
+      </c>
+      <c r="B765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>7833</v>
+      </c>
+      <c r="B766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>7834</v>
+      </c>
+      <c r="B767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>7835</v>
+      </c>
+      <c r="B768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>7836</v>
+      </c>
+      <c r="B769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>7837</v>
+      </c>
+      <c r="B770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>7838</v>
+      </c>
+      <c r="B771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>7839</v>
+      </c>
+      <c r="B772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>7840</v>
+      </c>
+      <c r="B773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>7841</v>
+      </c>
+      <c r="B774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>7842</v>
+      </c>
+      <c r="B775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>7843</v>
+      </c>
+      <c r="B776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>7844</v>
+      </c>
+      <c r="B777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>7845</v>
+      </c>
+      <c r="B778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>6750</v>
+      </c>
+      <c r="B779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>7846</v>
+      </c>
+      <c r="B780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>7847</v>
+      </c>
+      <c r="B781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>7848</v>
+      </c>
+      <c r="B782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>7849</v>
+      </c>
+      <c r="B783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>7850</v>
+      </c>
+      <c r="B784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>7851</v>
+      </c>
+      <c r="B785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>7852</v>
+      </c>
+      <c r="B786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>7853</v>
+      </c>
+      <c r="B787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>7854</v>
+      </c>
+      <c r="B788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>7855</v>
+      </c>
+      <c r="B789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>7856</v>
+      </c>
+      <c r="B790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>7857</v>
+      </c>
+      <c r="B792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>7858</v>
+      </c>
+      <c r="B793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>7859</v>
+      </c>
+      <c r="B794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>7860</v>
+      </c>
+      <c r="B795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>7861</v>
+      </c>
+      <c r="B796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>7862</v>
+      </c>
+      <c r="B797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>7863</v>
+      </c>
+      <c r="B798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>7864</v>
+      </c>
+      <c r="B799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>7865</v>
+      </c>
+      <c r="B800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>7866</v>
+      </c>
+      <c r="B801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>7867</v>
+      </c>
+      <c r="B802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>7868</v>
+      </c>
+      <c r="B803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>7869</v>
+      </c>
+      <c r="B804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>7870</v>
+      </c>
+      <c r="B805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>7871</v>
+      </c>
+      <c r="B806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>7872</v>
+      </c>
+      <c r="B807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>7873</v>
+      </c>
+      <c r="B808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>7874</v>
+      </c>
+      <c r="B809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>7875</v>
+      </c>
+      <c r="B810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>7876</v>
+      </c>
+      <c r="B811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>7877</v>
+      </c>
+      <c r="B812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>7878</v>
+      </c>
+      <c r="B813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>7879</v>
+      </c>
+      <c r="B814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>5738</v>
+      </c>
+      <c r="B815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>7880</v>
+      </c>
+      <c r="B816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>7881</v>
+      </c>
+      <c r="B817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>7882</v>
+      </c>
+      <c r="B818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>6367</v>
+      </c>
+      <c r="B819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>7883</v>
+      </c>
+      <c r="B820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>7884</v>
+      </c>
+      <c r="B821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>7885</v>
+      </c>
+      <c r="B822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>7886</v>
+      </c>
+      <c r="B823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>7887</v>
+      </c>
+      <c r="B824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>7888</v>
+      </c>
+      <c r="B825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>7889</v>
+      </c>
+      <c r="B826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>6627</v>
+      </c>
+      <c r="B828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>7890</v>
+      </c>
+      <c r="B829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>7891</v>
+      </c>
+      <c r="B830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>7892</v>
+      </c>
+      <c r="B831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>7893</v>
+      </c>
+      <c r="B832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>5988</v>
+      </c>
+      <c r="B833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>7894</v>
+      </c>
+      <c r="B834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>7895</v>
+      </c>
+      <c r="B835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>7896</v>
+      </c>
+      <c r="B836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>7897</v>
+      </c>
+      <c r="B837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>7898</v>
+      </c>
+      <c r="B838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>7899</v>
+      </c>
+      <c r="B839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>7900</v>
+      </c>
+      <c r="B840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>7901</v>
+      </c>
+      <c r="B841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>7902</v>
+      </c>
+      <c r="B842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>7903</v>
+      </c>
+      <c r="B843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>7904</v>
+      </c>
+      <c r="B844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>7905</v>
+      </c>
+      <c r="B845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>7906</v>
+      </c>
+      <c r="B847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>7907</v>
+      </c>
+      <c r="B848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>7908</v>
+      </c>
+      <c r="B849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>7909</v>
+      </c>
+      <c r="B850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>6756</v>
+      </c>
+      <c r="B851">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48380,7 +57322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2445"/>
   <sheetViews>
@@ -67958,7 +76900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C147"/>
   <sheetViews>
@@ -69594,11 +78536,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2022"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
